--- a/Agenda - CE-QUAL-W2_Workshop_Aug_2022.xlsx
+++ b/Agenda - CE-QUAL-W2_Workshop_Aug_2022.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/todd/GitHub/environmentalsystems/CE-QUAL-W2/workshop/2022/Agenda/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/todd/GitHub/environmentalsystems/CE-QUAL-W2-Workshop-2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03C9C2FE-2AA8-7D49-AD8B-0ACE5484694F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FAAECE-8F3A-F545-A5D6-53B3AD82073B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{5524DC16-E37C-514A-B687-063004997C4D}"/>
   </bookViews>
@@ -790,52 +790,22 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -901,6 +871,24 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -910,10 +898,22 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1242,8 +1242,8 @@
   </sheetPr>
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33:E33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1261,36 +1261,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="96" t="s">
+      <c r="A1" s="56" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="96"/>
-      <c r="C1" s="96"/>
-      <c r="D1" s="96"/>
-      <c r="E1" s="96"/>
-      <c r="F1" s="96"/>
-      <c r="G1" s="96"/>
-      <c r="H1" s="96"/>
-      <c r="I1" s="96"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
     </row>
     <row r="3" spans="1:9" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="97" t="s">
+      <c r="A3" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="97"/>
+      <c r="B3" s="59"/>
       <c r="C3" s="33"/>
-      <c r="D3" s="97" t="s">
+      <c r="D3" s="59" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="97"/>
-      <c r="F3" s="97" t="s">
+      <c r="E3" s="59"/>
+      <c r="F3" s="59" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="97"/>
-      <c r="H3" s="97" t="s">
+      <c r="G3" s="59"/>
+      <c r="H3" s="59" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="97"/>
+      <c r="I3" s="59"/>
     </row>
     <row r="4" spans="1:9" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -1390,10 +1390,10 @@
       <c r="B8" s="2">
         <v>0.39583333333333298</v>
       </c>
-      <c r="D8" s="58" t="s">
+      <c r="D8" s="60" t="s">
         <v>62</v>
       </c>
-      <c r="E8" s="59"/>
+      <c r="E8" s="61"/>
       <c r="F8" s="43"/>
       <c r="G8" s="29"/>
       <c r="H8" s="51"/>
@@ -1406,16 +1406,16 @@
       <c r="B9" s="2">
         <v>0.40625</v>
       </c>
-      <c r="D9" s="72"/>
-      <c r="E9" s="73"/>
-      <c r="F9" s="56" t="s">
+      <c r="D9" s="62"/>
+      <c r="E9" s="63"/>
+      <c r="F9" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="G9" s="57"/>
-      <c r="H9" s="56" t="s">
+      <c r="G9" s="58"/>
+      <c r="H9" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="I9" s="57"/>
+      <c r="I9" s="58"/>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -1512,18 +1512,18 @@
       <c r="B14" s="2">
         <v>0.45833333333333298</v>
       </c>
-      <c r="D14" s="56" t="s">
+      <c r="D14" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E14" s="57"/>
-      <c r="F14" s="56" t="s">
+      <c r="E14" s="58"/>
+      <c r="F14" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="57"/>
-      <c r="H14" s="56" t="s">
+      <c r="G14" s="58"/>
+      <c r="H14" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="I14" s="57"/>
+      <c r="I14" s="58"/>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
@@ -1620,18 +1620,18 @@
       <c r="B19" s="2">
         <v>0.51041666666666696</v>
       </c>
-      <c r="D19" s="66" t="s">
+      <c r="D19" s="92" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="67"/>
-      <c r="F19" s="60" t="s">
+      <c r="E19" s="93"/>
+      <c r="F19" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="G19" s="61"/>
-      <c r="H19" s="60" t="s">
+      <c r="G19" s="84"/>
+      <c r="H19" s="83" t="s">
         <v>22</v>
       </c>
-      <c r="I19" s="61"/>
+      <c r="I19" s="84"/>
     </row>
     <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
@@ -1640,12 +1640,12 @@
       <c r="B20" s="2">
         <v>0.52083333333333304</v>
       </c>
-      <c r="D20" s="68"/>
-      <c r="E20" s="69"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="63"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="63"/>
+      <c r="D20" s="94"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="85"/>
+      <c r="G20" s="86"/>
+      <c r="H20" s="85"/>
+      <c r="I20" s="86"/>
     </row>
     <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
@@ -1654,12 +1654,12 @@
       <c r="B21" s="2">
         <v>0.53125</v>
       </c>
-      <c r="D21" s="68"/>
-      <c r="E21" s="69"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="63"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="63"/>
+      <c r="D21" s="94"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="86"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="86"/>
     </row>
     <row r="22" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
@@ -1668,12 +1668,12 @@
       <c r="B22" s="2">
         <v>0.54166666666666696</v>
       </c>
-      <c r="D22" s="68"/>
-      <c r="E22" s="69"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="63"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="63"/>
+      <c r="D22" s="94"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="86"/>
+      <c r="H22" s="85"/>
+      <c r="I22" s="86"/>
     </row>
     <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
@@ -1682,12 +1682,12 @@
       <c r="B23" s="2">
         <v>0.55208333333333304</v>
       </c>
-      <c r="D23" s="68"/>
-      <c r="E23" s="69"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="63"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="63"/>
+      <c r="D23" s="94"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="86"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="86"/>
     </row>
     <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
@@ -1696,12 +1696,12 @@
       <c r="B24" s="2">
         <v>0.5625</v>
       </c>
-      <c r="D24" s="70"/>
-      <c r="E24" s="71"/>
-      <c r="F24" s="64"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="64"/>
-      <c r="I24" s="65"/>
+      <c r="D24" s="96"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="87"/>
+      <c r="G24" s="88"/>
+      <c r="H24" s="87"/>
+      <c r="I24" s="88"/>
     </row>
     <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
@@ -1776,10 +1776,10 @@
       <c r="B28" s="2">
         <v>0.60416666666666696</v>
       </c>
-      <c r="D28" s="56" t="s">
+      <c r="D28" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E28" s="57"/>
+      <c r="E28" s="58"/>
       <c r="F28" s="12"/>
       <c r="G28" s="15"/>
       <c r="H28" s="45"/>
@@ -1798,10 +1798,10 @@
       <c r="E29" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F29" s="56" t="s">
+      <c r="F29" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="G29" s="57"/>
+      <c r="G29" s="58"/>
       <c r="H29" s="45"/>
       <c r="I29" s="14"/>
     </row>
@@ -1838,10 +1838,10 @@
       </c>
       <c r="F31" s="46"/>
       <c r="G31" s="29"/>
-      <c r="H31" s="58" t="s">
+      <c r="H31" s="60" t="s">
         <v>4</v>
       </c>
-      <c r="I31" s="59"/>
+      <c r="I31" s="61"/>
     </row>
     <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
@@ -1872,10 +1872,10 @@
       <c r="B33" s="2">
         <v>0.65625</v>
       </c>
-      <c r="D33" s="56" t="s">
+      <c r="D33" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="E33" s="57"/>
+      <c r="E33" s="58"/>
       <c r="F33" s="12"/>
       <c r="G33" s="47"/>
       <c r="H33" s="55"/>
@@ -1894,10 +1894,10 @@
       <c r="E34" s="10" t="s">
         <v>52</v>
       </c>
-      <c r="F34" s="56" t="s">
+      <c r="F34" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="G34" s="95"/>
+      <c r="G34" s="91"/>
       <c r="H34" s="31"/>
       <c r="I34" s="20"/>
     </row>
@@ -1919,7 +1919,7 @@
       <c r="H35" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="I35" s="48" t="s">
+      <c r="I35" s="18" t="s">
         <v>66</v>
       </c>
     </row>
@@ -1949,94 +1949,78 @@
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="7"/>
-      <c r="H38" s="76" t="s">
+      <c r="H38" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="I38" s="76"/>
+      <c r="I38" s="66"/>
     </row>
     <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="8"/>
-      <c r="D39" s="77" t="s">
+      <c r="D39" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="E39" s="78"/>
+      <c r="E39" s="68"/>
       <c r="F39" s="33"/>
-      <c r="H39" s="83" t="s">
+      <c r="H39" s="73" t="s">
         <v>18</v>
       </c>
-      <c r="I39" s="84"/>
+      <c r="I39" s="74"/>
     </row>
     <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
-      <c r="D40" s="79"/>
-      <c r="E40" s="80"/>
-      <c r="H40" s="85" t="s">
+      <c r="D40" s="69"/>
+      <c r="E40" s="70"/>
+      <c r="H40" s="75" t="s">
         <v>24</v>
       </c>
-      <c r="I40" s="86"/>
+      <c r="I40" s="76"/>
     </row>
     <row r="41" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
-      <c r="D41" s="79"/>
-      <c r="E41" s="80"/>
-      <c r="H41" s="87" t="s">
+      <c r="D41" s="69"/>
+      <c r="E41" s="70"/>
+      <c r="H41" s="77" t="s">
         <v>25</v>
       </c>
-      <c r="I41" s="88"/>
+      <c r="I41" s="78"/>
     </row>
     <row r="42" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
-      <c r="D42" s="79"/>
-      <c r="E42" s="80"/>
-      <c r="H42" s="93" t="s">
+      <c r="D42" s="69"/>
+      <c r="E42" s="70"/>
+      <c r="H42" s="89" t="s">
         <v>39</v>
       </c>
-      <c r="I42" s="94"/>
+      <c r="I42" s="90"/>
     </row>
     <row r="43" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D43" s="79"/>
-      <c r="E43" s="80"/>
-      <c r="H43" s="74" t="s">
+      <c r="D43" s="69"/>
+      <c r="E43" s="70"/>
+      <c r="H43" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="I43" s="75"/>
+      <c r="I43" s="65"/>
     </row>
     <row r="44" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D44" s="79"/>
-      <c r="E44" s="80"/>
-      <c r="H44" s="89" t="s">
+      <c r="D44" s="69"/>
+      <c r="E44" s="70"/>
+      <c r="H44" s="79" t="s">
         <v>17</v>
       </c>
-      <c r="I44" s="90"/>
+      <c r="I44" s="80"/>
     </row>
     <row r="45" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D45" s="81"/>
-      <c r="E45" s="82"/>
-      <c r="H45" s="91" t="s">
+      <c r="D45" s="71"/>
+      <c r="E45" s="72"/>
+      <c r="H45" s="81" t="s">
         <v>16</v>
       </c>
-      <c r="I45" s="92"/>
+      <c r="I45" s="82"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="D8:E9"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="D39:E45"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H45:I45"/>
     <mergeCell ref="H19:I24"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H42:I42"/>
@@ -2049,6 +2033,22 @@
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="F19:G24"/>
     <mergeCell ref="D28:E28"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="D39:E45"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="D8:E9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Agenda - CE-QUAL-W2_Workshop_Aug_2022.xlsx
+++ b/Agenda - CE-QUAL-W2_Workshop_Aug_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/todd/GitHub/environmentalsystems/CE-QUAL-W2-Workshop-2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83FAAECE-8F3A-F545-A5D6-53B3AD82073B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16AF97C-76AA-3F43-9924-F9D9A02244AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{5524DC16-E37C-514A-B687-063004997C4D}"/>
   </bookViews>
@@ -38,12 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="65">
   <si>
     <t>Todd</t>
-  </si>
-  <si>
-    <t>Summary &amp; Discussion</t>
   </si>
   <si>
     <t>Barry &amp; Zhong</t>
@@ -194,9 +191,6 @@
     <t>3.04 Workshop - Upgrade to V4.5</t>
   </si>
   <si>
-    <t>3.05 Workshop - Special Topics</t>
-  </si>
-  <si>
     <t>Zhong &amp; Lauren</t>
   </si>
   <si>
@@ -236,10 +230,10 @@
     <t>Cognitive Environmental Effects Research Flume</t>
   </si>
   <si>
-    <t>3.04 Workshop - Upgrade to V4.5, continued</t>
-  </si>
-  <si>
     <t>All</t>
+  </si>
+  <si>
+    <t>Special Topics, Q&amp;A</t>
   </si>
 </sst>
 </file>
@@ -623,7 +617,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="98">
+  <cellXfs count="102">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -730,9 +724,6 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -772,12 +763,6 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
@@ -790,7 +775,22 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -799,19 +799,37 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -871,50 +889,38 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1261,62 +1267,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="56" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
+      <c r="A1" s="91" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="91"/>
+      <c r="C1" s="91"/>
+      <c r="D1" s="91"/>
+      <c r="E1" s="91"/>
+      <c r="F1" s="91"/>
+      <c r="G1" s="91"/>
+      <c r="H1" s="91"/>
+      <c r="I1" s="91"/>
     </row>
     <row r="3" spans="1:9" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="59" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" s="59"/>
+      <c r="A3" s="92" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="92"/>
       <c r="C3" s="33"/>
-      <c r="D3" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="59"/>
-      <c r="F3" s="59" t="s">
+      <c r="D3" s="92" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="59"/>
-      <c r="H3" s="59" t="s">
+      <c r="E3" s="92"/>
+      <c r="F3" s="92" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="59"/>
+      <c r="G3" s="92"/>
+      <c r="H3" s="92" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="92"/>
     </row>
     <row r="4" spans="1:9" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C4" s="4"/>
       <c r="D4" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F4" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="H4" s="21" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I4" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1327,22 +1333,22 @@
         <v>0.36458333333333331</v>
       </c>
       <c r="D5" s="25" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="26" t="s">
         <v>0</v>
       </c>
       <c r="F5" s="25" t="s">
-        <v>41</v>
-      </c>
-      <c r="G5" s="28" t="s">
-        <v>3</v>
+        <v>40</v>
+      </c>
+      <c r="G5" s="26" t="s">
+        <v>2</v>
       </c>
       <c r="H5" s="17" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I5" s="18" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1352,14 +1358,14 @@
       <c r="B6" s="2">
         <v>0.375</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="39"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="29"/>
-      <c r="H6" s="51" t="s">
-        <v>64</v>
-      </c>
-      <c r="I6" s="20"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="96" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" s="19"/>
     </row>
     <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
@@ -1368,20 +1374,16 @@
       <c r="B7" s="2">
         <v>0.38541666666666702</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="39"/>
+      <c r="D7" s="43"/>
+      <c r="E7" s="38"/>
       <c r="F7" s="25" t="s">
-        <v>54</v>
-      </c>
-      <c r="G7" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="I7" s="18" t="s">
-        <v>8</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="G7" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="H7" s="97"/>
+      <c r="I7" s="20"/>
     </row>
     <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
@@ -1390,14 +1392,14 @@
       <c r="B8" s="2">
         <v>0.39583333333333298</v>
       </c>
-      <c r="D8" s="60" t="s">
-        <v>62</v>
-      </c>
-      <c r="E8" s="61"/>
-      <c r="F8" s="43"/>
-      <c r="G8" s="29"/>
-      <c r="H8" s="51"/>
-      <c r="I8" s="20"/>
+      <c r="D8" s="70" t="s">
+        <v>60</v>
+      </c>
+      <c r="E8" s="71"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="27"/>
+      <c r="H8" s="17"/>
+      <c r="I8" s="18"/>
     </row>
     <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
@@ -1406,16 +1408,18 @@
       <c r="B9" s="2">
         <v>0.40625</v>
       </c>
-      <c r="D9" s="62"/>
-      <c r="E9" s="63"/>
-      <c r="F9" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="G9" s="58"/>
-      <c r="H9" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="I9" s="58"/>
+      <c r="D9" s="93"/>
+      <c r="E9" s="94"/>
+      <c r="F9" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="G9" s="63"/>
+      <c r="H9" s="98" t="s">
+        <v>39</v>
+      </c>
+      <c r="I9" s="19" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
@@ -1425,23 +1429,19 @@
         <v>0.41666666666666702</v>
       </c>
       <c r="D10" s="25" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E10" s="26" t="s">
         <v>0</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>5</v>
-      </c>
-      <c r="H10" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="I10" s="42" t="s">
-        <v>6</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="G10" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="H10" s="97"/>
+      <c r="I10" s="20"/>
     </row>
     <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
@@ -1450,16 +1450,14 @@
       <c r="B11" s="2">
         <v>0.42708333333333298</v>
       </c>
-      <c r="D11" s="43"/>
+      <c r="D11" s="42"/>
       <c r="E11" s="27"/>
       <c r="F11" s="22"/>
-      <c r="G11" s="32"/>
-      <c r="H11" s="11" t="s">
-        <v>47</v>
-      </c>
-      <c r="I11" s="13" t="s">
-        <v>6</v>
-      </c>
+      <c r="G11" s="95"/>
+      <c r="H11" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="I11" s="60"/>
     </row>
     <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -1469,19 +1467,23 @@
         <v>0.4375</v>
       </c>
       <c r="D12" s="25" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E12" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="40" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="41" t="s">
+        <v>4</v>
+      </c>
+      <c r="H12" s="25" t="s">
+        <v>45</v>
+      </c>
+      <c r="I12" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="F12" s="41" t="s">
-        <v>56</v>
-      </c>
-      <c r="G12" s="42" t="s">
-        <v>5</v>
-      </c>
-      <c r="H12" s="12"/>
-      <c r="I12" s="15"/>
     </row>
     <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
@@ -1490,19 +1492,19 @@
       <c r="B13" s="2">
         <v>0.44791666666666702</v>
       </c>
-      <c r="D13" s="40"/>
+      <c r="D13" s="39"/>
       <c r="E13" s="27"/>
-      <c r="F13" s="49" t="s">
-        <v>57</v>
-      </c>
-      <c r="G13" s="50" t="s">
+      <c r="F13" s="48" t="s">
+        <v>55</v>
+      </c>
+      <c r="G13" s="101" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="I13" s="13" t="s">
         <v>5</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="I13" s="28" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1512,18 +1514,16 @@
       <c r="B14" s="2">
         <v>0.45833333333333298</v>
       </c>
-      <c r="D14" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="E14" s="58"/>
-      <c r="F14" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="G14" s="58"/>
-      <c r="H14" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="I14" s="58"/>
+      <c r="D14" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E14" s="60"/>
+      <c r="F14" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="G14" s="63"/>
+      <c r="H14" s="44"/>
+      <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
@@ -1533,23 +1533,19 @@
         <v>0.46875</v>
       </c>
       <c r="D15" s="25" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E15" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="F15" s="41" t="s">
-        <v>58</v>
-      </c>
-      <c r="G15" s="42" t="s">
-        <v>6</v>
-      </c>
-      <c r="H15" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>3</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="F15" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="G15" s="100" t="s">
+        <v>5</v>
+      </c>
+      <c r="H15" s="12"/>
+      <c r="I15" s="15"/>
     </row>
     <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
@@ -1558,16 +1554,18 @@
       <c r="B16" s="2">
         <v>0.47916666666666702</v>
       </c>
-      <c r="D16" s="40"/>
+      <c r="D16" s="39"/>
       <c r="E16" s="27"/>
       <c r="F16" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G16" s="16" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="12"/>
-      <c r="I16" s="15"/>
+        <v>5</v>
+      </c>
+      <c r="H16" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="I16" s="60"/>
     </row>
     <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
@@ -1577,22 +1575,22 @@
         <v>0.48958333333333298</v>
       </c>
       <c r="D17" s="25" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="E17" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="F17" s="41" t="s">
-        <v>60</v>
-      </c>
-      <c r="G17" s="42" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="11" t="s">
-        <v>50</v>
-      </c>
-      <c r="I17" s="13" t="s">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="F17" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="G17" s="100" t="s">
+        <v>2</v>
+      </c>
+      <c r="H17" s="25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" s="28" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1602,16 +1600,16 @@
       <c r="B18" s="2">
         <v>0.5</v>
       </c>
-      <c r="D18" s="40"/>
+      <c r="D18" s="39"/>
       <c r="E18" s="27"/>
-      <c r="F18" s="49" t="s">
-        <v>61</v>
-      </c>
-      <c r="G18" s="50" t="s">
-        <v>3</v>
-      </c>
-      <c r="H18" s="45"/>
-      <c r="I18" s="14"/>
+      <c r="F18" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="G18" s="101" t="s">
+        <v>2</v>
+      </c>
+      <c r="H18" s="42"/>
+      <c r="I18" s="29"/>
     </row>
     <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
@@ -1620,18 +1618,18 @@
       <c r="B19" s="2">
         <v>0.51041666666666696</v>
       </c>
-      <c r="D19" s="92" t="s">
-        <v>22</v>
-      </c>
-      <c r="E19" s="93"/>
-      <c r="F19" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="G19" s="84"/>
-      <c r="H19" s="83" t="s">
-        <v>22</v>
-      </c>
-      <c r="I19" s="84"/>
+      <c r="D19" s="64" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" s="65"/>
+      <c r="F19" s="53" t="s">
+        <v>21</v>
+      </c>
+      <c r="G19" s="54"/>
+      <c r="H19" s="55" t="s">
+        <v>21</v>
+      </c>
+      <c r="I19" s="56"/>
     </row>
     <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
@@ -1640,12 +1638,12 @@
       <c r="B20" s="2">
         <v>0.52083333333333304</v>
       </c>
-      <c r="D20" s="94"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="85"/>
-      <c r="G20" s="86"/>
-      <c r="H20" s="85"/>
-      <c r="I20" s="86"/>
+      <c r="D20" s="66"/>
+      <c r="E20" s="67"/>
+      <c r="F20" s="55"/>
+      <c r="G20" s="56"/>
+      <c r="H20" s="55"/>
+      <c r="I20" s="56"/>
     </row>
     <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
@@ -1654,12 +1652,12 @@
       <c r="B21" s="2">
         <v>0.53125</v>
       </c>
-      <c r="D21" s="94"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="86"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="86"/>
+      <c r="D21" s="66"/>
+      <c r="E21" s="67"/>
+      <c r="F21" s="55"/>
+      <c r="G21" s="56"/>
+      <c r="H21" s="55"/>
+      <c r="I21" s="56"/>
     </row>
     <row r="22" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
@@ -1668,12 +1666,12 @@
       <c r="B22" s="2">
         <v>0.54166666666666696</v>
       </c>
-      <c r="D22" s="94"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="86"/>
-      <c r="H22" s="85"/>
-      <c r="I22" s="86"/>
+      <c r="D22" s="66"/>
+      <c r="E22" s="67"/>
+      <c r="F22" s="55"/>
+      <c r="G22" s="56"/>
+      <c r="H22" s="55"/>
+      <c r="I22" s="56"/>
     </row>
     <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
@@ -1682,12 +1680,12 @@
       <c r="B23" s="2">
         <v>0.55208333333333304</v>
       </c>
-      <c r="D23" s="94"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="86"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="86"/>
+      <c r="D23" s="66"/>
+      <c r="E23" s="67"/>
+      <c r="F23" s="55"/>
+      <c r="G23" s="56"/>
+      <c r="H23" s="55"/>
+      <c r="I23" s="56"/>
     </row>
     <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
@@ -1696,12 +1694,12 @@
       <c r="B24" s="2">
         <v>0.5625</v>
       </c>
-      <c r="D24" s="96"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="87"/>
-      <c r="G24" s="88"/>
-      <c r="H24" s="87"/>
-      <c r="I24" s="88"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="69"/>
+      <c r="F24" s="57"/>
+      <c r="G24" s="58"/>
+      <c r="H24" s="55"/>
+      <c r="I24" s="56"/>
     </row>
     <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
@@ -1711,22 +1709,22 @@
         <v>0.57291666666666696</v>
       </c>
       <c r="D25" s="11" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E25" s="13" t="s">
         <v>0</v>
       </c>
       <c r="F25" s="25" t="s">
-        <v>42</v>
-      </c>
-      <c r="G25" s="28" t="s">
-        <v>5</v>
+        <v>41</v>
+      </c>
+      <c r="G25" s="26" t="s">
+        <v>4</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1737,13 +1735,13 @@
         <v>0.58333333333333304</v>
       </c>
       <c r="D26" s="25" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E26" s="28" t="s">
-        <v>6</v>
-      </c>
-      <c r="F26" s="44"/>
-      <c r="G26" s="36"/>
+        <v>5</v>
+      </c>
+      <c r="F26" s="43"/>
+      <c r="G26" s="99"/>
       <c r="H26" s="12"/>
       <c r="I26" s="15"/>
     </row>
@@ -1754,19 +1752,19 @@
       <c r="B27" s="2">
         <v>0.59375</v>
       </c>
-      <c r="D27" s="43"/>
+      <c r="D27" s="42"/>
       <c r="E27" s="29"/>
       <c r="F27" s="11" t="s">
-        <v>43</v>
-      </c>
-      <c r="G27" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="51" t="s">
         <v>0</v>
       </c>
       <c r="H27" s="11" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="I27" s="13" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1776,13 +1774,13 @@
       <c r="B28" s="2">
         <v>0.60416666666666696</v>
       </c>
-      <c r="D28" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="E28" s="58"/>
+      <c r="D28" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="60"/>
       <c r="F28" s="12"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="45"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="44"/>
       <c r="I28" s="14"/>
     </row>
     <row r="29" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1793,16 +1791,16 @@
         <v>0.61458333333333304</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="F29" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="G29" s="58"/>
-      <c r="H29" s="45"/>
+        <v>5</v>
+      </c>
+      <c r="F29" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="60"/>
+      <c r="H29" s="44"/>
       <c r="I29" s="14"/>
     </row>
     <row r="30" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1814,11 +1812,11 @@
       </c>
       <c r="D30" s="22"/>
       <c r="E30" s="32"/>
-      <c r="F30" s="37" t="s">
-        <v>44</v>
+      <c r="F30" s="36" t="s">
+        <v>43</v>
       </c>
       <c r="G30" s="28" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H30" s="12"/>
       <c r="I30" s="15"/>
@@ -1831,17 +1829,17 @@
         <v>0.63541666666666696</v>
       </c>
       <c r="D31" s="25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E31" s="28" t="s">
-        <v>53</v>
-      </c>
-      <c r="F31" s="46"/>
+        <v>51</v>
+      </c>
+      <c r="F31" s="45"/>
       <c r="G31" s="29"/>
-      <c r="H31" s="60" t="s">
-        <v>4</v>
-      </c>
-      <c r="I31" s="61"/>
+      <c r="H31" s="70" t="s">
+        <v>3</v>
+      </c>
+      <c r="I31" s="71"/>
     </row>
     <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
@@ -1850,19 +1848,19 @@
       <c r="B32" s="2">
         <v>0.64583333333333304</v>
       </c>
-      <c r="D32" s="43"/>
+      <c r="D32" s="42"/>
       <c r="E32" s="29"/>
       <c r="F32" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="G32" s="54" t="s">
-        <v>2</v>
+        <v>44</v>
+      </c>
+      <c r="G32" s="51" t="s">
+        <v>1</v>
       </c>
       <c r="H32" s="30" t="s">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="I32" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1872,13 +1870,13 @@
       <c r="B33" s="2">
         <v>0.65625</v>
       </c>
-      <c r="D33" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="E33" s="58"/>
+      <c r="D33" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="60"/>
       <c r="F33" s="12"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="55"/>
+      <c r="G33" s="46"/>
+      <c r="H33" s="52"/>
       <c r="I33" s="19"/>
     </row>
     <row r="34" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1889,15 +1887,15 @@
         <v>0.66666666666666696</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>52</v>
-      </c>
-      <c r="F34" s="57" t="s">
-        <v>4</v>
-      </c>
-      <c r="G34" s="91"/>
+        <v>50</v>
+      </c>
+      <c r="F34" s="59" t="s">
+        <v>3</v>
+      </c>
+      <c r="G34" s="63"/>
       <c r="H34" s="31"/>
       <c r="I34" s="20"/>
     </row>
@@ -1910,17 +1908,17 @@
       </c>
       <c r="D35" s="22"/>
       <c r="E35" s="32"/>
-      <c r="F35" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G35" s="48" t="s">
-        <v>66</v>
+      <c r="F35" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="G35" s="47" t="s">
+        <v>63</v>
       </c>
       <c r="H35" s="30" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="I35" s="18" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
@@ -1930,11 +1928,11 @@
       <c r="B36" s="2">
         <v>0.6875</v>
       </c>
-      <c r="D36" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="E36" s="53" t="s">
-        <v>66</v>
+      <c r="D36" s="49" t="s">
+        <v>20</v>
+      </c>
+      <c r="E36" s="50" t="s">
+        <v>63</v>
       </c>
       <c r="F36" s="35"/>
       <c r="G36" s="34"/>
@@ -1949,78 +1947,95 @@
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="7"/>
-      <c r="H38" s="66" t="s">
-        <v>19</v>
-      </c>
-      <c r="I38" s="66"/>
+      <c r="H38" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="74"/>
     </row>
     <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="8"/>
-      <c r="D39" s="67" t="s">
-        <v>26</v>
-      </c>
-      <c r="E39" s="68"/>
+      <c r="D39" s="75" t="s">
+        <v>25</v>
+      </c>
+      <c r="E39" s="76"/>
       <c r="F39" s="33"/>
-      <c r="H39" s="73" t="s">
-        <v>18</v>
-      </c>
-      <c r="I39" s="74"/>
+      <c r="H39" s="81" t="s">
+        <v>17</v>
+      </c>
+      <c r="I39" s="82"/>
     </row>
     <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
-      <c r="D40" s="69"/>
-      <c r="E40" s="70"/>
-      <c r="H40" s="75" t="s">
-        <v>24</v>
-      </c>
-      <c r="I40" s="76"/>
+      <c r="D40" s="77"/>
+      <c r="E40" s="78"/>
+      <c r="H40" s="83" t="s">
+        <v>23</v>
+      </c>
+      <c r="I40" s="84"/>
     </row>
     <row r="41" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
-      <c r="D41" s="69"/>
-      <c r="E41" s="70"/>
-      <c r="H41" s="77" t="s">
-        <v>25</v>
-      </c>
-      <c r="I41" s="78"/>
+      <c r="D41" s="77"/>
+      <c r="E41" s="78"/>
+      <c r="H41" s="85" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" s="86"/>
     </row>
     <row r="42" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
-      <c r="D42" s="69"/>
-      <c r="E42" s="70"/>
-      <c r="H42" s="89" t="s">
-        <v>39</v>
-      </c>
-      <c r="I42" s="90"/>
+      <c r="D42" s="77"/>
+      <c r="E42" s="78"/>
+      <c r="H42" s="61" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42" s="62"/>
     </row>
     <row r="43" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D43" s="69"/>
-      <c r="E43" s="70"/>
-      <c r="H43" s="64" t="s">
-        <v>27</v>
-      </c>
-      <c r="I43" s="65"/>
+      <c r="D43" s="77"/>
+      <c r="E43" s="78"/>
+      <c r="H43" s="72" t="s">
+        <v>26</v>
+      </c>
+      <c r="I43" s="73"/>
     </row>
     <row r="44" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D44" s="69"/>
-      <c r="E44" s="70"/>
-      <c r="H44" s="79" t="s">
-        <v>17</v>
-      </c>
-      <c r="I44" s="80"/>
+      <c r="D44" s="77"/>
+      <c r="E44" s="78"/>
+      <c r="H44" s="87" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="88"/>
     </row>
     <row r="45" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D45" s="71"/>
-      <c r="E45" s="72"/>
-      <c r="H45" s="81" t="s">
-        <v>16</v>
-      </c>
-      <c r="I45" s="82"/>
+      <c r="D45" s="79"/>
+      <c r="E45" s="80"/>
+      <c r="H45" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="H43:I43"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="D39:E45"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="H45:I45"/>
     <mergeCell ref="H19:I24"/>
     <mergeCell ref="F14:G14"/>
     <mergeCell ref="H42:I42"/>
@@ -2029,26 +2044,9 @@
     <mergeCell ref="D14:E14"/>
     <mergeCell ref="D33:E33"/>
     <mergeCell ref="H31:I31"/>
-    <mergeCell ref="H14:I14"/>
     <mergeCell ref="F29:G29"/>
     <mergeCell ref="F19:G24"/>
     <mergeCell ref="D28:E28"/>
-    <mergeCell ref="H43:I43"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="D39:E45"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="H45:I45"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="D8:E9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Agenda - CE-QUAL-W2_Workshop_Aug_2022.xlsx
+++ b/Agenda - CE-QUAL-W2_Workshop_Aug_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/todd/GitHub/environmentalsystems/CE-QUAL-W2-Workshop-2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F16AF97C-76AA-3F43-9924-F9D9A02244AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C712D89-3849-024A-8DF0-0668EE2CD1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{5524DC16-E37C-514A-B687-063004997C4D}"/>
   </bookViews>
@@ -775,23 +775,26 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -799,37 +802,25 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -889,38 +880,47 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1252,7 +1252,7 @@
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="20" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5.6640625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="5.83203125" style="1" bestFit="1" customWidth="1"/>
@@ -1267,38 +1267,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="91" t="s">
+      <c r="A1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="91"/>
-      <c r="C1" s="91"/>
-      <c r="D1" s="91"/>
-      <c r="E1" s="91"/>
-      <c r="F1" s="91"/>
-      <c r="G1" s="91"/>
-      <c r="H1" s="91"/>
-      <c r="I1" s="91"/>
-    </row>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="62"/>
+      <c r="F1" s="62"/>
+      <c r="G1" s="62"/>
+      <c r="H1" s="62"/>
+      <c r="I1" s="62"/>
+    </row>
+    <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:9" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="92" t="s">
+      <c r="A3" s="64" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="92"/>
+      <c r="B3" s="64"/>
       <c r="C3" s="33"/>
-      <c r="D3" s="92" t="s">
+      <c r="D3" s="64" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="92"/>
-      <c r="F3" s="92" t="s">
+      <c r="E3" s="64"/>
+      <c r="F3" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="92"/>
-      <c r="H3" s="92" t="s">
+      <c r="G3" s="64"/>
+      <c r="H3" s="64" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="92"/>
-    </row>
-    <row r="4" spans="1:9" s="24" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I3" s="64"/>
+    </row>
+    <row r="4" spans="1:9" s="24" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
@@ -1325,7 +1326,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>0.35416666666666669</v>
       </c>
@@ -1351,7 +1352,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>0.36458333333333331</v>
       </c>
@@ -1362,12 +1363,12 @@
       <c r="E6" s="38"/>
       <c r="F6" s="42"/>
       <c r="G6" s="27"/>
-      <c r="H6" s="96" t="s">
+      <c r="H6" s="54" t="s">
         <v>62</v>
       </c>
       <c r="I6" s="19"/>
     </row>
-    <row r="7" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>0.375</v>
       </c>
@@ -1382,46 +1383,46 @@
       <c r="G7" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="97"/>
+      <c r="H7" s="55"/>
       <c r="I7" s="20"/>
     </row>
-    <row r="8" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>0.38541666666666702</v>
       </c>
       <c r="B8" s="2">
         <v>0.39583333333333298</v>
       </c>
-      <c r="D8" s="70" t="s">
+      <c r="D8" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="71"/>
+      <c r="E8" s="66"/>
       <c r="F8" s="42"/>
       <c r="G8" s="27"/>
       <c r="H8" s="17"/>
       <c r="I8" s="18"/>
     </row>
-    <row r="9" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>0.39583333333333298</v>
       </c>
       <c r="B9" s="2">
         <v>0.40625</v>
       </c>
-      <c r="D9" s="93"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="59" t="s">
+      <c r="D9" s="67"/>
+      <c r="E9" s="68"/>
+      <c r="F9" s="60" t="s">
         <v>3</v>
       </c>
       <c r="G9" s="63"/>
-      <c r="H9" s="98" t="s">
+      <c r="H9" s="56" t="s">
         <v>39</v>
       </c>
       <c r="I9" s="19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>0.40625</v>
       </c>
@@ -1440,10 +1441,10 @@
       <c r="G10" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="H10" s="97"/>
+      <c r="H10" s="55"/>
       <c r="I10" s="20"/>
     </row>
-    <row r="11" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>0.41666666666666602</v>
       </c>
@@ -1453,13 +1454,13 @@
       <c r="D11" s="42"/>
       <c r="E11" s="27"/>
       <c r="F11" s="22"/>
-      <c r="G11" s="95"/>
-      <c r="H11" s="59" t="s">
+      <c r="G11" s="53"/>
+      <c r="H11" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="60"/>
-    </row>
-    <row r="12" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I11" s="66"/>
+    </row>
+    <row r="12" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>0.42708333333333298</v>
       </c>
@@ -1475,17 +1476,17 @@
       <c r="F12" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="G12" s="41" t="s">
+      <c r="G12" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="H12" s="25" t="s">
+      <c r="H12" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="I12" s="28" t="s">
+      <c r="I12" s="41" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>0.4375</v>
       </c>
@@ -1497,7 +1498,7 @@
       <c r="F13" s="48" t="s">
         <v>55</v>
       </c>
-      <c r="G13" s="101" t="s">
+      <c r="G13" s="59" t="s">
         <v>4</v>
       </c>
       <c r="H13" s="11" t="s">
@@ -1507,25 +1508,25 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>0.44791666666666602</v>
       </c>
       <c r="B14" s="2">
         <v>0.45833333333333298</v>
       </c>
-      <c r="D14" s="59" t="s">
+      <c r="D14" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="60"/>
-      <c r="F14" s="59" t="s">
+      <c r="E14" s="61"/>
+      <c r="F14" s="60" t="s">
         <v>3</v>
       </c>
       <c r="G14" s="63"/>
-      <c r="H14" s="44"/>
-      <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H14" s="12"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>0.45833333333333298</v>
       </c>
@@ -1541,13 +1542,15 @@
       <c r="F15" s="40" t="s">
         <v>56</v>
       </c>
-      <c r="G15" s="100" t="s">
+      <c r="G15" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="H15" s="12"/>
-      <c r="I15" s="15"/>
-    </row>
-    <row r="16" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H15" s="60" t="s">
+        <v>3</v>
+      </c>
+      <c r="I15" s="61"/>
+    </row>
+    <row r="16" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>0.46875</v>
       </c>
@@ -1562,12 +1565,14 @@
       <c r="G16" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="59" t="s">
-        <v>3</v>
-      </c>
-      <c r="I16" s="60"/>
-    </row>
-    <row r="17" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H16" s="40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" s="41" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>0.47916666666666702</v>
       </c>
@@ -1583,17 +1588,17 @@
       <c r="F17" s="40" t="s">
         <v>58</v>
       </c>
-      <c r="G17" s="100" t="s">
+      <c r="G17" s="58" t="s">
         <v>2</v>
       </c>
-      <c r="H17" s="25" t="s">
-        <v>47</v>
-      </c>
-      <c r="I17" s="28" t="s">
+      <c r="H17" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="I17" s="13" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>0.48958333333333298</v>
       </c>
@@ -1605,103 +1610,103 @@
       <c r="F18" s="48" t="s">
         <v>59</v>
       </c>
-      <c r="G18" s="101" t="s">
+      <c r="G18" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="42"/>
-      <c r="I18" s="29"/>
-    </row>
-    <row r="19" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H18" s="98" t="s">
+        <v>21</v>
+      </c>
+      <c r="I18" s="99"/>
+    </row>
+    <row r="19" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>0.5</v>
       </c>
       <c r="B19" s="2">
         <v>0.51041666666666696</v>
       </c>
-      <c r="D19" s="64" t="s">
+      <c r="D19" s="92" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="65"/>
-      <c r="F19" s="53" t="s">
+      <c r="E19" s="93"/>
+      <c r="F19" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="54"/>
-      <c r="H19" s="55" t="s">
-        <v>21</v>
-      </c>
-      <c r="I19" s="56"/>
-    </row>
-    <row r="20" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G19" s="99"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="89"/>
+    </row>
+    <row r="20" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>0.51041666666666596</v>
       </c>
       <c r="B20" s="2">
         <v>0.52083333333333304</v>
       </c>
-      <c r="D20" s="66"/>
-      <c r="E20" s="67"/>
-      <c r="F20" s="55"/>
-      <c r="G20" s="56"/>
-      <c r="H20" s="55"/>
-      <c r="I20" s="56"/>
-    </row>
-    <row r="21" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D20" s="94"/>
+      <c r="E20" s="95"/>
+      <c r="F20" s="88"/>
+      <c r="G20" s="89"/>
+      <c r="H20" s="88"/>
+      <c r="I20" s="89"/>
+    </row>
+    <row r="21" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>0.52083333333333304</v>
       </c>
       <c r="B21" s="2">
         <v>0.53125</v>
       </c>
-      <c r="D21" s="66"/>
-      <c r="E21" s="67"/>
-      <c r="F21" s="55"/>
-      <c r="G21" s="56"/>
-      <c r="H21" s="55"/>
-      <c r="I21" s="56"/>
-    </row>
-    <row r="22" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D21" s="94"/>
+      <c r="E21" s="95"/>
+      <c r="F21" s="88"/>
+      <c r="G21" s="89"/>
+      <c r="H21" s="88"/>
+      <c r="I21" s="89"/>
+    </row>
+    <row r="22" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>0.53125</v>
       </c>
       <c r="B22" s="2">
         <v>0.54166666666666696</v>
       </c>
-      <c r="D22" s="66"/>
-      <c r="E22" s="67"/>
-      <c r="F22" s="55"/>
-      <c r="G22" s="56"/>
-      <c r="H22" s="55"/>
-      <c r="I22" s="56"/>
-    </row>
-    <row r="23" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D22" s="94"/>
+      <c r="E22" s="95"/>
+      <c r="F22" s="88"/>
+      <c r="G22" s="89"/>
+      <c r="H22" s="88"/>
+      <c r="I22" s="89"/>
+    </row>
+    <row r="23" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>0.54166666666666596</v>
       </c>
       <c r="B23" s="2">
         <v>0.55208333333333304</v>
       </c>
-      <c r="D23" s="66"/>
-      <c r="E23" s="67"/>
-      <c r="F23" s="55"/>
-      <c r="G23" s="56"/>
-      <c r="H23" s="55"/>
-      <c r="I23" s="56"/>
-    </row>
-    <row r="24" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D23" s="94"/>
+      <c r="E23" s="95"/>
+      <c r="F23" s="88"/>
+      <c r="G23" s="89"/>
+      <c r="H23" s="88"/>
+      <c r="I23" s="89"/>
+    </row>
+    <row r="24" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>0.55208333333333304</v>
       </c>
       <c r="B24" s="2">
         <v>0.5625</v>
       </c>
-      <c r="D24" s="68"/>
-      <c r="E24" s="69"/>
-      <c r="F24" s="57"/>
-      <c r="G24" s="58"/>
-      <c r="H24" s="55"/>
-      <c r="I24" s="56"/>
-    </row>
-    <row r="25" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D24" s="96"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="100"/>
+      <c r="G24" s="101"/>
+      <c r="H24" s="100"/>
+      <c r="I24" s="101"/>
+    </row>
+    <row r="25" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>0.5625</v>
       </c>
@@ -1721,13 +1726,13 @@
         <v>4</v>
       </c>
       <c r="H25" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="I25" s="13" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>0.57291666666666596</v>
       </c>
@@ -1741,11 +1746,11 @@
         <v>5</v>
       </c>
       <c r="F26" s="43"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="12"/>
-      <c r="I26" s="15"/>
-    </row>
-    <row r="27" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G26" s="57"/>
+      <c r="H26" s="44"/>
+      <c r="I26" s="14"/>
+    </row>
+    <row r="27" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>0.58333333333333304</v>
       </c>
@@ -1760,30 +1765,26 @@
       <c r="G27" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="H27" s="11" t="s">
-        <v>49</v>
-      </c>
-      <c r="I27" s="13" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H27" s="44"/>
+      <c r="I27" s="14"/>
+    </row>
+    <row r="28" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>0.593749999999999</v>
       </c>
       <c r="B28" s="2">
         <v>0.60416666666666696</v>
       </c>
-      <c r="D28" s="59" t="s">
+      <c r="D28" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E28" s="60"/>
+      <c r="E28" s="61"/>
       <c r="F28" s="12"/>
       <c r="G28" s="46"/>
-      <c r="H28" s="44"/>
-      <c r="I28" s="14"/>
-    </row>
-    <row r="29" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H28" s="12"/>
+      <c r="I28" s="15"/>
+    </row>
+    <row r="29" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>0.60416666666666596</v>
       </c>
@@ -1796,14 +1797,16 @@
       <c r="E29" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="F29" s="59" t="s">
+      <c r="F29" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="60"/>
-      <c r="H29" s="44"/>
-      <c r="I29" s="14"/>
-    </row>
-    <row r="30" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G29" s="61"/>
+      <c r="H29" s="65" t="s">
+        <v>3</v>
+      </c>
+      <c r="I29" s="66"/>
+    </row>
+    <row r="30" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>0.61458333333333304</v>
       </c>
@@ -1815,13 +1818,17 @@
       <c r="F30" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="G30" s="28" t="s">
+      <c r="G30" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="H30" s="12"/>
-      <c r="I30" s="15"/>
-    </row>
-    <row r="31" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H30" s="30" t="s">
+        <v>64</v>
+      </c>
+      <c r="I30" s="18" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>0.624999999999999</v>
       </c>
@@ -1835,13 +1842,11 @@
         <v>51</v>
       </c>
       <c r="F31" s="45"/>
-      <c r="G31" s="29"/>
-      <c r="H31" s="70" t="s">
-        <v>3</v>
-      </c>
-      <c r="I31" s="71"/>
-    </row>
-    <row r="32" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G31" s="27"/>
+      <c r="H31" s="52"/>
+      <c r="I31" s="19"/>
+    </row>
+    <row r="32" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>0.63541666666666596</v>
       </c>
@@ -1856,30 +1861,26 @@
       <c r="G32" s="51" t="s">
         <v>1</v>
       </c>
-      <c r="H32" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="I32" s="18" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="H32" s="52"/>
+      <c r="I32" s="19"/>
+    </row>
+    <row r="33" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>0.64583333333333304</v>
       </c>
       <c r="B33" s="2">
         <v>0.65625</v>
       </c>
-      <c r="D33" s="59" t="s">
+      <c r="D33" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="E33" s="60"/>
+      <c r="E33" s="61"/>
       <c r="F33" s="12"/>
       <c r="G33" s="46"/>
       <c r="H33" s="52"/>
       <c r="I33" s="19"/>
     </row>
-    <row r="34" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>0.656249999999999</v>
       </c>
@@ -1892,14 +1893,14 @@
       <c r="E34" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="F34" s="59" t="s">
+      <c r="F34" s="60" t="s">
         <v>3</v>
       </c>
       <c r="G34" s="63"/>
       <c r="H34" s="31"/>
       <c r="I34" s="20"/>
     </row>
-    <row r="35" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>0.66666666666666596</v>
       </c>
@@ -1921,7 +1922,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>0.67708333333333304</v>
       </c>
@@ -1939,95 +1940,98 @@
       <c r="H36" s="31"/>
       <c r="I36" s="20"/>
     </row>
-    <row r="37" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
     </row>
-    <row r="38" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="7"/>
-      <c r="H38" s="74" t="s">
+      <c r="H38" s="71" t="s">
         <v>18</v>
       </c>
-      <c r="I38" s="74"/>
-    </row>
-    <row r="39" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I38" s="71"/>
+    </row>
+    <row r="39" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="8"/>
-      <c r="D39" s="75" t="s">
+      <c r="D39" s="72" t="s">
         <v>25</v>
       </c>
-      <c r="E39" s="76"/>
+      <c r="E39" s="73"/>
       <c r="F39" s="33"/>
-      <c r="H39" s="81" t="s">
+      <c r="H39" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="I39" s="82"/>
-    </row>
-    <row r="40" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I39" s="79"/>
+    </row>
+    <row r="40" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
-      <c r="D40" s="77"/>
-      <c r="E40" s="78"/>
-      <c r="H40" s="83" t="s">
+      <c r="D40" s="74"/>
+      <c r="E40" s="75"/>
+      <c r="H40" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="I40" s="84"/>
-    </row>
-    <row r="41" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I40" s="81"/>
+    </row>
+    <row r="41" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
-      <c r="D41" s="77"/>
-      <c r="E41" s="78"/>
-      <c r="H41" s="85" t="s">
+      <c r="D41" s="74"/>
+      <c r="E41" s="75"/>
+      <c r="H41" s="82" t="s">
         <v>24</v>
       </c>
-      <c r="I41" s="86"/>
-    </row>
-    <row r="42" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I41" s="83"/>
+    </row>
+    <row r="42" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
-      <c r="D42" s="77"/>
-      <c r="E42" s="78"/>
-      <c r="H42" s="61" t="s">
+      <c r="D42" s="74"/>
+      <c r="E42" s="75"/>
+      <c r="H42" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="I42" s="62"/>
-    </row>
-    <row r="43" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D43" s="77"/>
-      <c r="E43" s="78"/>
-      <c r="H43" s="72" t="s">
+      <c r="I42" s="91"/>
+    </row>
+    <row r="43" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D43" s="74"/>
+      <c r="E43" s="75"/>
+      <c r="H43" s="69" t="s">
         <v>26</v>
       </c>
-      <c r="I43" s="73"/>
-    </row>
-    <row r="44" spans="1:9" ht="18" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D44" s="77"/>
-      <c r="E44" s="78"/>
-      <c r="H44" s="87" t="s">
+      <c r="I43" s="70"/>
+    </row>
+    <row r="44" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D44" s="74"/>
+      <c r="E44" s="75"/>
+      <c r="H44" s="84" t="s">
         <v>16</v>
       </c>
-      <c r="I44" s="88"/>
-    </row>
-    <row r="45" spans="1:9" ht="18" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D45" s="79"/>
-      <c r="E45" s="80"/>
-      <c r="H45" s="89" t="s">
+      <c r="I44" s="85"/>
+    </row>
+    <row r="45" spans="1:9" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D45" s="76"/>
+      <c r="E45" s="77"/>
+      <c r="H45" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="I45" s="90"/>
+      <c r="I45" s="87"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H18:I24"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="D19:E24"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F19:G24"/>
+    <mergeCell ref="D28:E28"/>
     <mergeCell ref="H43:I43"/>
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="D39:E45"/>
@@ -2036,17 +2040,14 @@
     <mergeCell ref="H41:I41"/>
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H19:I24"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="D19:E24"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F19:G24"/>
-    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D8:E9"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Agenda - CE-QUAL-W2_Workshop_Aug_2022.xlsx
+++ b/Agenda - CE-QUAL-W2_Workshop_Aug_2022.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/todd/GitHub/environmentalsystems/CE-QUAL-W2-Workshop-2022/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C712D89-3849-024A-8DF0-0668EE2CD1BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A3575AE-2312-DB43-AE48-77102F80B6AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{5524DC16-E37C-514A-B687-063004997C4D}"/>
   </bookViews>
@@ -19,6 +19,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="0">Agenda!$A$1:$I$45</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -802,25 +803,55 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="11" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -880,46 +911,16 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="6" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1248,7 +1249,7 @@
   </sheetPr>
   <dimension ref="A1:I45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
       <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
@@ -1267,37 +1268,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21" x14ac:dyDescent="0.2">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="62"/>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="H1" s="62"/>
-      <c r="I1" s="62"/>
+      <c r="B1" s="98"/>
+      <c r="C1" s="98"/>
+      <c r="D1" s="98"/>
+      <c r="E1" s="98"/>
+      <c r="F1" s="98"/>
+      <c r="G1" s="98"/>
+      <c r="H1" s="98"/>
+      <c r="I1" s="98"/>
     </row>
     <row r="2" spans="1:9" ht="15" x14ac:dyDescent="0.2"/>
     <row r="3" spans="1:9" s="24" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="64"/>
+      <c r="B3" s="99"/>
       <c r="C3" s="33"/>
-      <c r="D3" s="64" t="s">
+      <c r="D3" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64" t="s">
+      <c r="E3" s="99"/>
+      <c r="F3" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="G3" s="64"/>
-      <c r="H3" s="64" t="s">
+      <c r="G3" s="99"/>
+      <c r="H3" s="99" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="64"/>
+      <c r="I3" s="99"/>
     </row>
     <row r="4" spans="1:9" s="24" customFormat="1" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -1393,10 +1394,10 @@
       <c r="B8" s="2">
         <v>0.39583333333333298</v>
       </c>
-      <c r="D8" s="65" t="s">
+      <c r="D8" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="66"/>
+      <c r="E8" s="63"/>
       <c r="F8" s="42"/>
       <c r="G8" s="27"/>
       <c r="H8" s="17"/>
@@ -1409,12 +1410,12 @@
       <c r="B9" s="2">
         <v>0.40625</v>
       </c>
-      <c r="D9" s="67"/>
-      <c r="E9" s="68"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="101"/>
       <c r="F9" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="63"/>
+      <c r="G9" s="70"/>
       <c r="H9" s="56" t="s">
         <v>39</v>
       </c>
@@ -1455,10 +1456,10 @@
       <c r="E11" s="27"/>
       <c r="F11" s="22"/>
       <c r="G11" s="53"/>
-      <c r="H11" s="65" t="s">
+      <c r="H11" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="I11" s="66"/>
+      <c r="I11" s="63"/>
     </row>
     <row r="12" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
@@ -1522,7 +1523,7 @@
       <c r="F14" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="G14" s="63"/>
+      <c r="G14" s="70"/>
       <c r="H14" s="12"/>
       <c r="I14" s="15"/>
     </row>
@@ -1613,10 +1614,10 @@
       <c r="G18" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="H18" s="98" t="s">
+      <c r="H18" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="I18" s="99"/>
+      <c r="I18" s="65"/>
     </row>
     <row r="19" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
@@ -1625,16 +1626,16 @@
       <c r="B19" s="2">
         <v>0.51041666666666696</v>
       </c>
-      <c r="D19" s="92" t="s">
+      <c r="D19" s="73" t="s">
         <v>21</v>
       </c>
-      <c r="E19" s="93"/>
-      <c r="F19" s="98" t="s">
+      <c r="E19" s="74"/>
+      <c r="F19" s="64" t="s">
         <v>21</v>
       </c>
-      <c r="G19" s="99"/>
-      <c r="H19" s="88"/>
-      <c r="I19" s="89"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="66"/>
+      <c r="I19" s="67"/>
     </row>
     <row r="20" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
@@ -1643,12 +1644,12 @@
       <c r="B20" s="2">
         <v>0.52083333333333304</v>
       </c>
-      <c r="D20" s="94"/>
-      <c r="E20" s="95"/>
-      <c r="F20" s="88"/>
-      <c r="G20" s="89"/>
-      <c r="H20" s="88"/>
-      <c r="I20" s="89"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="66"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="66"/>
+      <c r="I20" s="67"/>
     </row>
     <row r="21" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
@@ -1657,12 +1658,12 @@
       <c r="B21" s="2">
         <v>0.53125</v>
       </c>
-      <c r="D21" s="94"/>
-      <c r="E21" s="95"/>
-      <c r="F21" s="88"/>
-      <c r="G21" s="89"/>
-      <c r="H21" s="88"/>
-      <c r="I21" s="89"/>
+      <c r="D21" s="75"/>
+      <c r="E21" s="76"/>
+      <c r="F21" s="66"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="66"/>
+      <c r="I21" s="67"/>
     </row>
     <row r="22" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
@@ -1671,12 +1672,12 @@
       <c r="B22" s="2">
         <v>0.54166666666666696</v>
       </c>
-      <c r="D22" s="94"/>
-      <c r="E22" s="95"/>
-      <c r="F22" s="88"/>
-      <c r="G22" s="89"/>
-      <c r="H22" s="88"/>
-      <c r="I22" s="89"/>
+      <c r="D22" s="75"/>
+      <c r="E22" s="76"/>
+      <c r="F22" s="66"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="66"/>
+      <c r="I22" s="67"/>
     </row>
     <row r="23" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
@@ -1685,12 +1686,12 @@
       <c r="B23" s="2">
         <v>0.55208333333333304</v>
       </c>
-      <c r="D23" s="94"/>
-      <c r="E23" s="95"/>
-      <c r="F23" s="88"/>
-      <c r="G23" s="89"/>
-      <c r="H23" s="88"/>
-      <c r="I23" s="89"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="76"/>
+      <c r="F23" s="66"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="66"/>
+      <c r="I23" s="67"/>
     </row>
     <row r="24" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
@@ -1699,12 +1700,12 @@
       <c r="B24" s="2">
         <v>0.5625</v>
       </c>
-      <c r="D24" s="96"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="100"/>
-      <c r="G24" s="101"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="101"/>
+      <c r="D24" s="77"/>
+      <c r="E24" s="78"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="69"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="69"/>
     </row>
     <row r="25" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
@@ -1801,10 +1802,10 @@
         <v>3</v>
       </c>
       <c r="G29" s="61"/>
-      <c r="H29" s="65" t="s">
+      <c r="H29" s="62" t="s">
         <v>3</v>
       </c>
-      <c r="I29" s="66"/>
+      <c r="I29" s="63"/>
     </row>
     <row r="30" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
@@ -1896,7 +1897,7 @@
       <c r="F34" s="60" t="s">
         <v>3</v>
       </c>
-      <c r="G34" s="63"/>
+      <c r="G34" s="70"/>
       <c r="H34" s="31"/>
       <c r="I34" s="20"/>
     </row>
@@ -1948,90 +1949,86 @@
       <c r="A38" s="5"/>
       <c r="B38" s="5"/>
       <c r="C38" s="7"/>
-      <c r="H38" s="71" t="s">
+      <c r="H38" s="81" t="s">
         <v>18</v>
       </c>
-      <c r="I38" s="71"/>
+      <c r="I38" s="81"/>
     </row>
     <row r="39" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="6"/>
       <c r="B39" s="6"/>
       <c r="C39" s="8"/>
-      <c r="D39" s="72" t="s">
+      <c r="D39" s="82" t="s">
         <v>25</v>
       </c>
-      <c r="E39" s="73"/>
+      <c r="E39" s="83"/>
       <c r="F39" s="33"/>
-      <c r="H39" s="78" t="s">
+      <c r="H39" s="88" t="s">
         <v>17</v>
       </c>
-      <c r="I39" s="79"/>
+      <c r="I39" s="89"/>
     </row>
     <row r="40" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2"/>
-      <c r="D40" s="74"/>
-      <c r="E40" s="75"/>
-      <c r="H40" s="80" t="s">
+      <c r="D40" s="84"/>
+      <c r="E40" s="85"/>
+      <c r="H40" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="I40" s="81"/>
+      <c r="I40" s="91"/>
     </row>
     <row r="41" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2"/>
-      <c r="D41" s="74"/>
-      <c r="E41" s="75"/>
-      <c r="H41" s="82" t="s">
+      <c r="D41" s="84"/>
+      <c r="E41" s="85"/>
+      <c r="H41" s="92" t="s">
         <v>24</v>
       </c>
-      <c r="I41" s="83"/>
+      <c r="I41" s="93"/>
     </row>
     <row r="42" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="2"/>
-      <c r="D42" s="74"/>
-      <c r="E42" s="75"/>
-      <c r="H42" s="90" t="s">
+      <c r="D42" s="84"/>
+      <c r="E42" s="85"/>
+      <c r="H42" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="I42" s="91"/>
+      <c r="I42" s="72"/>
     </row>
     <row r="43" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D43" s="74"/>
-      <c r="E43" s="75"/>
-      <c r="H43" s="69" t="s">
+      <c r="D43" s="84"/>
+      <c r="E43" s="85"/>
+      <c r="H43" s="79" t="s">
         <v>26</v>
       </c>
-      <c r="I43" s="70"/>
+      <c r="I43" s="80"/>
     </row>
     <row r="44" spans="1:9" ht="20" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D44" s="74"/>
-      <c r="E44" s="75"/>
-      <c r="H44" s="84" t="s">
+      <c r="D44" s="84"/>
+      <c r="E44" s="85"/>
+      <c r="H44" s="94" t="s">
         <v>16</v>
       </c>
-      <c r="I44" s="85"/>
+      <c r="I44" s="95"/>
     </row>
     <row r="45" spans="1:9" ht="20" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="D45" s="76"/>
-      <c r="E45" s="77"/>
-      <c r="H45" s="86" t="s">
+      <c r="D45" s="86"/>
+      <c r="E45" s="87"/>
+      <c r="H45" s="96" t="s">
         <v>15</v>
       </c>
-      <c r="I45" s="87"/>
+      <c r="I45" s="97"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="H18:I24"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H42:I42"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="D19:E24"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F19:G24"/>
-    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="F9:G9"/>
+    <mergeCell ref="D3:E3"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="D8:E9"/>
     <mergeCell ref="H43:I43"/>
     <mergeCell ref="H38:I38"/>
     <mergeCell ref="D39:E45"/>
@@ -2040,14 +2037,18 @@
     <mergeCell ref="H41:I41"/>
     <mergeCell ref="H44:I44"/>
     <mergeCell ref="H45:I45"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="F9:G9"/>
-    <mergeCell ref="D3:E3"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="D8:E9"/>
+    <mergeCell ref="D19:E24"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F19:G24"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="H18:I24"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H42:I42"/>
+    <mergeCell ref="F34:G34"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
